--- a/Code/Results/Cases/Case_0_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.466533852220761</v>
+        <v>9.054883713581678</v>
       </c>
       <c r="D2">
-        <v>23.38317623624289</v>
+        <v>17.86437773734367</v>
       </c>
       <c r="E2">
-        <v>10.2309125554781</v>
+        <v>8.479206092280677</v>
       </c>
       <c r="F2">
-        <v>128.5765847142517</v>
+        <v>83.87726448752882</v>
       </c>
       <c r="G2">
-        <v>1.60031771226315</v>
+        <v>3.873400959496192</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.791637999770375</v>
+        <v>6.734303653953861</v>
       </c>
       <c r="M2">
-        <v>75.419878071277</v>
+        <v>48.89542058806997</v>
       </c>
       <c r="N2">
-        <v>11.576857130674</v>
+        <v>16.97149281301617</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.914654550729573</v>
+        <v>9.119645376577187</v>
       </c>
       <c r="D3">
-        <v>19.10353404175098</v>
+        <v>17.77270215548539</v>
       </c>
       <c r="E3">
-        <v>9.113416258608252</v>
+        <v>8.352235548181179</v>
       </c>
       <c r="F3">
-        <v>106.258961606411</v>
+        <v>82.78789453517027</v>
       </c>
       <c r="G3">
-        <v>1.786213382012544</v>
+        <v>3.889279887184919</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.72533651438096</v>
+        <v>6.610293885266783</v>
       </c>
       <c r="M3">
-        <v>63.75973529298328</v>
+        <v>47.96496274182373</v>
       </c>
       <c r="N3">
-        <v>12.19417318816076</v>
+        <v>16.9895752332252</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.120890518733486</v>
+        <v>9.161018334428389</v>
       </c>
       <c r="D4">
-        <v>17.61684575786433</v>
+        <v>17.7256687217048</v>
       </c>
       <c r="E4">
-        <v>8.651987270512793</v>
+        <v>8.273101454849805</v>
       </c>
       <c r="F4">
-        <v>97.48924546063975</v>
+        <v>82.16067948472528</v>
       </c>
       <c r="G4">
-        <v>1.855016034660956</v>
+        <v>3.899415910356884</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.286493437996111</v>
+        <v>6.532729597756131</v>
       </c>
       <c r="M4">
-        <v>58.86066395641433</v>
+        <v>47.40447409730797</v>
       </c>
       <c r="N4">
-        <v>12.37518555917636</v>
+        <v>17.00359069467425</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.199311369102008</v>
+        <v>9.178286854543675</v>
       </c>
       <c r="D5">
-        <v>17.09117674439501</v>
+        <v>17.70879075466516</v>
       </c>
       <c r="E5">
-        <v>8.479812689507403</v>
+        <v>8.240570488195523</v>
       </c>
       <c r="F5">
-        <v>94.28848731542122</v>
+        <v>81.91560454792597</v>
       </c>
       <c r="G5">
-        <v>1.879636849544605</v>
+        <v>3.903645109149241</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.122972623761894</v>
+        <v>6.501047493684791</v>
       </c>
       <c r="M5">
-        <v>57.01933122380439</v>
+        <v>47.17901784300856</v>
       </c>
       <c r="N5">
-        <v>12.43520719398255</v>
+        <v>17.01004107109063</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.212097118321749</v>
+        <v>9.181179081982865</v>
       </c>
       <c r="D6">
-        <v>17.00711403951724</v>
+        <v>17.70612520905183</v>
       </c>
       <c r="E6">
-        <v>8.451857507718616</v>
+        <v>8.235152001589597</v>
       </c>
       <c r="F6">
-        <v>93.77248738143254</v>
+        <v>81.875546195862</v>
       </c>
       <c r="G6">
-        <v>1.883583733026723</v>
+        <v>3.904353369201953</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.096432060518869</v>
+        <v>6.498487811756164</v>
       </c>
       <c r="M6">
-        <v>56.71959514045633</v>
+        <v>47.14176561507856</v>
       </c>
       <c r="N6">
-        <v>12.4446276834332</v>
+        <v>17.01115696945483</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.121965729832309</v>
+        <v>9.161249563535549</v>
       </c>
       <c r="D7">
-        <v>17.60951801126405</v>
+        <v>17.72543188683132</v>
       </c>
       <c r="E7">
-        <v>8.649617327230169</v>
+        <v>8.272663861297206</v>
       </c>
       <c r="F7">
-        <v>97.44492259424511</v>
+        <v>82.15733168370937</v>
       </c>
       <c r="G7">
-        <v>1.855358651900904</v>
+        <v>3.899472545214959</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.284241871570857</v>
+        <v>6.532300051025315</v>
       </c>
       <c r="M7">
-        <v>58.83537148132626</v>
+        <v>47.40142128263845</v>
       </c>
       <c r="N7">
-        <v>12.37603637890941</v>
+        <v>17.00367468618281</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.653836943089013</v>
+        <v>9.076882083877431</v>
       </c>
       <c r="D8">
-        <v>21.42670922726082</v>
+        <v>17.83082444705643</v>
       </c>
       <c r="E8">
-        <v>9.732158413912828</v>
+        <v>8.435677221364422</v>
       </c>
       <c r="F8">
-        <v>118.4427268126074</v>
+        <v>83.4930367360198</v>
       </c>
       <c r="G8">
-        <v>1.686846232926281</v>
+        <v>3.87879678795086</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.315316530153401</v>
+        <v>6.691847700478862</v>
       </c>
       <c r="M8">
-        <v>70.25548007852414</v>
+        <v>48.57249080649248</v>
       </c>
       <c r="N8">
-        <v>11.89032228523845</v>
+        <v>16.97712705848167</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.653836943089013</v>
+        <v>8.924012757958955</v>
       </c>
       <c r="D9">
-        <v>21.42670922726082</v>
+        <v>18.11254367756685</v>
       </c>
       <c r="E9">
-        <v>9.732158413912828</v>
+        <v>8.745547811030928</v>
       </c>
       <c r="F9">
-        <v>118.4427268126074</v>
+        <v>86.4399036907884</v>
       </c>
       <c r="G9">
-        <v>1.686846232926281</v>
+        <v>3.841243808423195</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.315316530153401</v>
+        <v>6.992920893233978</v>
       </c>
       <c r="M9">
-        <v>70.25548007852414</v>
+        <v>50.94481140646425</v>
       </c>
       <c r="N9">
-        <v>11.89032228523845</v>
+        <v>16.94788181663491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.653836943089013</v>
+        <v>8.819088851957279</v>
       </c>
       <c r="D10">
-        <v>21.42670922726082</v>
+        <v>18.36728979011151</v>
       </c>
       <c r="E10">
-        <v>9.732158413912828</v>
+        <v>8.966652597488363</v>
       </c>
       <c r="F10">
-        <v>118.4427268126074</v>
+        <v>88.79944704059356</v>
       </c>
       <c r="G10">
-        <v>1.686846232926281</v>
+        <v>3.815371551050378</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.315316530153401</v>
+        <v>7.206318067140344</v>
       </c>
       <c r="M10">
-        <v>70.25548007852414</v>
+        <v>52.72101166956437</v>
       </c>
       <c r="N10">
-        <v>11.89032228523845</v>
+        <v>16.93988704435279</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.653836943089013</v>
+        <v>8.772898015822376</v>
       </c>
       <c r="D11">
-        <v>21.42670922726082</v>
+        <v>18.4939325986722</v>
       </c>
       <c r="E11">
-        <v>9.732158413912828</v>
+        <v>9.065710261166323</v>
       </c>
       <c r="F11">
-        <v>118.4427268126074</v>
+        <v>89.91372515352612</v>
       </c>
       <c r="G11">
-        <v>1.686846232926281</v>
+        <v>3.803950067547483</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.315316530153401</v>
+        <v>7.301599614637618</v>
       </c>
       <c r="M11">
-        <v>70.25548007852414</v>
+        <v>53.53369250837379</v>
       </c>
       <c r="N11">
-        <v>11.89032228523845</v>
+        <v>16.93908486574248</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.653836943089013</v>
+        <v>8.755622886390892</v>
       </c>
       <c r="D12">
-        <v>21.42670922726082</v>
+        <v>18.54346327260854</v>
       </c>
       <c r="E12">
-        <v>9.732158413912828</v>
+        <v>9.102994007377657</v>
       </c>
       <c r="F12">
-        <v>118.4427268126074</v>
+        <v>90.34142873103013</v>
       </c>
       <c r="G12">
-        <v>1.686846232926281</v>
+        <v>3.799672960814882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.315316530153401</v>
+        <v>7.33741503958248</v>
       </c>
       <c r="M12">
-        <v>70.25548007852414</v>
+        <v>53.8419069435699</v>
       </c>
       <c r="N12">
-        <v>11.89032228523845</v>
+        <v>16.93918034239062</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.653836943089013</v>
+        <v>8.75933385554198</v>
       </c>
       <c r="D13">
-        <v>21.42670922726082</v>
+        <v>18.53272555065783</v>
       </c>
       <c r="E13">
-        <v>9.732158413912828</v>
+        <v>9.094974508424167</v>
       </c>
       <c r="F13">
-        <v>118.4427268126074</v>
+        <v>90.24906144136231</v>
       </c>
       <c r="G13">
-        <v>1.686846232926281</v>
+        <v>3.800592013406983</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.315316530153401</v>
+        <v>7.32971346808328</v>
       </c>
       <c r="M13">
-        <v>70.25548007852414</v>
+        <v>53.77550961208858</v>
       </c>
       <c r="N13">
-        <v>11.89032228523845</v>
+        <v>16.93914216056591</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.653836943089013</v>
+        <v>8.771472474452796</v>
       </c>
       <c r="D14">
-        <v>21.42670922726082</v>
+        <v>18.49797582792299</v>
       </c>
       <c r="E14">
-        <v>9.732158413912828</v>
+        <v>9.068782213823964</v>
       </c>
       <c r="F14">
-        <v>118.4427268126074</v>
+        <v>89.94879808572882</v>
       </c>
       <c r="G14">
-        <v>1.686846232926281</v>
+        <v>3.803597238463091</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.315316530153401</v>
+        <v>7.304551533752895</v>
       </c>
       <c r="M14">
-        <v>70.25548007852414</v>
+        <v>53.55904118399153</v>
       </c>
       <c r="N14">
-        <v>11.89032228523845</v>
+        <v>16.9390847684875</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.653836943089013</v>
+        <v>8.778935749231071</v>
       </c>
       <c r="D15">
-        <v>21.42670922726082</v>
+        <v>18.47689634204258</v>
       </c>
       <c r="E15">
-        <v>9.732158413912828</v>
+        <v>9.052708863418459</v>
       </c>
       <c r="F15">
-        <v>118.4427268126074</v>
+        <v>89.76562310695184</v>
       </c>
       <c r="G15">
-        <v>1.686846232926281</v>
+        <v>3.805444208118792</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.315316530153401</v>
+        <v>7.289104325906433</v>
       </c>
       <c r="M15">
-        <v>70.25548007852414</v>
+        <v>53.42650346025057</v>
       </c>
       <c r="N15">
-        <v>11.89032228523845</v>
+        <v>16.9391013527915</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.653836943089013</v>
+        <v>8.822138084675748</v>
       </c>
       <c r="D16">
-        <v>21.42670922726082</v>
+        <v>18.35923219069963</v>
       </c>
       <c r="E16">
-        <v>9.732158413912828</v>
+        <v>8.960147561240619</v>
       </c>
       <c r="F16">
-        <v>118.4427268126074</v>
+        <v>88.72743825694498</v>
       </c>
       <c r="G16">
-        <v>1.686846232926281</v>
+        <v>3.816124798702742</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.315316530153401</v>
+        <v>7.200054408915967</v>
       </c>
       <c r="M16">
-        <v>70.25548007852414</v>
+        <v>52.66797750267038</v>
       </c>
       <c r="N16">
-        <v>11.89032228523845</v>
+        <v>16.93999580144768</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.653836943089013</v>
+        <v>8.849032108731741</v>
       </c>
       <c r="D17">
-        <v>21.42670922726082</v>
+        <v>18.28982399659176</v>
       </c>
       <c r="E17">
-        <v>9.732158413912828</v>
+        <v>8.902967745347818</v>
       </c>
       <c r="F17">
-        <v>118.4427268126074</v>
+        <v>88.10092962052305</v>
       </c>
       <c r="G17">
-        <v>1.686846232926281</v>
+        <v>3.822764671088424</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.315316530153401</v>
+        <v>7.144959815784007</v>
       </c>
       <c r="M17">
-        <v>70.25548007852414</v>
+        <v>52.20369537730707</v>
       </c>
       <c r="N17">
-        <v>11.89032228523845</v>
+        <v>16.94126469615158</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.653836943089013</v>
+        <v>8.864646066013963</v>
       </c>
       <c r="D18">
-        <v>21.42670922726082</v>
+        <v>18.25091331037946</v>
       </c>
       <c r="E18">
-        <v>9.732158413912828</v>
+        <v>8.869936394800957</v>
       </c>
       <c r="F18">
-        <v>118.4427268126074</v>
+        <v>87.74443718276473</v>
       </c>
       <c r="G18">
-        <v>1.686846232926281</v>
+        <v>3.826616629950235</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.315316530153401</v>
+        <v>7.113102386821628</v>
       </c>
       <c r="M18">
-        <v>70.25548007852414</v>
+        <v>51.93710416764057</v>
       </c>
       <c r="N18">
-        <v>11.89032228523845</v>
+        <v>16.94226186711318</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.653836943089013</v>
+        <v>8.869957777024357</v>
       </c>
       <c r="D19">
-        <v>21.42670922726082</v>
+        <v>18.23791162501779</v>
       </c>
       <c r="E19">
-        <v>9.732158413912828</v>
+        <v>8.858728246352307</v>
       </c>
       <c r="F19">
-        <v>118.4427268126074</v>
+        <v>87.62440173841905</v>
       </c>
       <c r="G19">
-        <v>1.686846232926281</v>
+        <v>3.827926545481512</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.315316530153401</v>
+        <v>7.102287329097871</v>
       </c>
       <c r="M19">
-        <v>70.25548007852414</v>
+        <v>51.84692496353812</v>
       </c>
       <c r="N19">
-        <v>11.89032228523845</v>
+        <v>16.94264565688839</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.653836943089013</v>
+        <v>8.846154199580528</v>
       </c>
       <c r="D20">
-        <v>21.42670922726082</v>
+        <v>18.29710777516243</v>
       </c>
       <c r="E20">
-        <v>9.732158413912828</v>
+        <v>8.909069499995372</v>
       </c>
       <c r="F20">
-        <v>118.4427268126074</v>
+        <v>88.16722412630381</v>
       </c>
       <c r="G20">
-        <v>1.686846232926281</v>
+        <v>3.822054457043415</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.315316530153401</v>
+        <v>7.150842225884585</v>
       </c>
       <c r="M20">
-        <v>70.25548007852414</v>
+        <v>52.25307378462453</v>
       </c>
       <c r="N20">
-        <v>11.89032228523845</v>
+        <v>16.94110201143241</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.653836943089013</v>
+        <v>8.767901237756718</v>
       </c>
       <c r="D21">
-        <v>21.42670922726082</v>
+        <v>18.50813974572696</v>
       </c>
       <c r="E21">
-        <v>9.732158413912828</v>
+        <v>9.076481751571903</v>
       </c>
       <c r="F21">
-        <v>118.4427268126074</v>
+        <v>90.03683768857142</v>
       </c>
       <c r="G21">
-        <v>1.686846232926281</v>
+        <v>3.802713246442342</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.315316530153401</v>
+        <v>7.311949467068181</v>
       </c>
       <c r="M21">
-        <v>70.25548007852414</v>
+        <v>53.62261199429641</v>
       </c>
       <c r="N21">
-        <v>11.89032228523845</v>
+        <v>16.93909085912128</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.653836943089013</v>
+        <v>8.71801689289957</v>
       </c>
       <c r="D22">
-        <v>21.42670922726082</v>
+        <v>18.65524599032747</v>
       </c>
       <c r="E22">
-        <v>9.732158413912828</v>
+        <v>9.184567899140408</v>
       </c>
       <c r="F22">
-        <v>118.4427268126074</v>
+        <v>91.29219810346913</v>
       </c>
       <c r="G22">
-        <v>1.686846232926281</v>
+        <v>3.790351156320212</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.315316530153401</v>
+        <v>7.415691523165605</v>
       </c>
       <c r="M22">
-        <v>70.25548007852414</v>
+        <v>54.52034075082859</v>
       </c>
       <c r="N22">
-        <v>11.89032228523845</v>
+        <v>16.94009940759761</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.653836943089013</v>
+        <v>8.744527677333211</v>
       </c>
       <c r="D23">
-        <v>21.42670922726082</v>
+        <v>18.57588375208577</v>
       </c>
       <c r="E23">
-        <v>9.732158413912828</v>
+        <v>9.127004112755122</v>
       </c>
       <c r="F23">
-        <v>118.4427268126074</v>
+        <v>90.61917013294358</v>
       </c>
       <c r="G23">
-        <v>1.686846232926281</v>
+        <v>3.796924267694087</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.315316530153401</v>
+        <v>7.360466504455307</v>
       </c>
       <c r="M23">
-        <v>70.25548007852414</v>
+        <v>54.04102571058205</v>
       </c>
       <c r="N23">
-        <v>11.89032228523845</v>
+        <v>16.93935143884185</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.653836943089013</v>
+        <v>8.847454827782938</v>
       </c>
       <c r="D24">
-        <v>21.42670922726082</v>
+        <v>18.29381168791894</v>
       </c>
       <c r="E24">
-        <v>9.732158413912828</v>
+        <v>8.906311387953416</v>
       </c>
       <c r="F24">
-        <v>118.4427268126074</v>
+        <v>88.13724085880257</v>
       </c>
       <c r="G24">
-        <v>1.686846232926281</v>
+        <v>3.822375436862647</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.315316530153401</v>
+        <v>7.148183357101806</v>
       </c>
       <c r="M24">
-        <v>70.25548007852414</v>
+        <v>52.23074876080928</v>
       </c>
       <c r="N24">
-        <v>11.89032228523845</v>
+        <v>16.94117472684233</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.653836943089013</v>
+        <v>8.964049781205198</v>
       </c>
       <c r="D25">
-        <v>21.42670922726082</v>
+        <v>18.02807818334438</v>
       </c>
       <c r="E25">
-        <v>9.732158413912828</v>
+        <v>8.662832002927173</v>
       </c>
       <c r="F25">
-        <v>118.4427268126074</v>
+        <v>85.60810524259581</v>
       </c>
       <c r="G25">
-        <v>1.686846232926281</v>
+        <v>3.851093228520501</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.315316530153401</v>
+        <v>6.912802812720955</v>
       </c>
       <c r="M25">
-        <v>70.25548007852414</v>
+        <v>50.29628120447003</v>
       </c>
       <c r="N25">
-        <v>11.89032228523845</v>
+        <v>16.95339294656354</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.054883713581678</v>
+        <v>3.466533852220623</v>
       </c>
       <c r="D2">
-        <v>17.86437773734367</v>
+        <v>23.38317623624294</v>
       </c>
       <c r="E2">
-        <v>8.479206092280677</v>
+        <v>10.230912555478</v>
       </c>
       <c r="F2">
-        <v>83.87726448752882</v>
+        <v>128.5765847142515</v>
       </c>
       <c r="G2">
-        <v>3.873400959496192</v>
+        <v>1.600317712263</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.734303653953861</v>
+        <v>8.791637999770337</v>
       </c>
       <c r="M2">
-        <v>48.89542058806997</v>
+        <v>75.41987807127691</v>
       </c>
       <c r="N2">
-        <v>16.97149281301617</v>
+        <v>11.57685713067402</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.119645376577187</v>
+        <v>3.914654550729777</v>
       </c>
       <c r="D3">
-        <v>17.77270215548539</v>
+        <v>19.10353404175102</v>
       </c>
       <c r="E3">
-        <v>8.352235548181179</v>
+        <v>9.113416258608384</v>
       </c>
       <c r="F3">
-        <v>82.78789453517027</v>
+        <v>106.2589616064113</v>
       </c>
       <c r="G3">
-        <v>3.889279887184919</v>
+        <v>1.786213382012313</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.610293885266783</v>
+        <v>7.725336514381032</v>
       </c>
       <c r="M3">
-        <v>47.96496274182373</v>
+        <v>63.75973529298341</v>
       </c>
       <c r="N3">
-        <v>16.9895752332252</v>
+        <v>12.19417318816076</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.161018334428389</v>
+        <v>4.12089051873327</v>
       </c>
       <c r="D4">
-        <v>17.7256687217048</v>
+        <v>17.61684575786435</v>
       </c>
       <c r="E4">
-        <v>8.273101454849805</v>
+        <v>8.651987270512853</v>
       </c>
       <c r="F4">
-        <v>82.16067948472528</v>
+        <v>97.48924546063968</v>
       </c>
       <c r="G4">
-        <v>3.899415910356884</v>
+        <v>1.855016034661065</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.532729597756131</v>
+        <v>7.286493437996191</v>
       </c>
       <c r="M4">
-        <v>47.40447409730797</v>
+        <v>58.86066395641424</v>
       </c>
       <c r="N4">
-        <v>17.00359069467425</v>
+        <v>12.37518555917634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.178286854543675</v>
+        <v>4.199311369101859</v>
       </c>
       <c r="D5">
-        <v>17.70879075466516</v>
+        <v>17.09117674439506</v>
       </c>
       <c r="E5">
-        <v>8.240570488195523</v>
+        <v>8.479812689507382</v>
       </c>
       <c r="F5">
-        <v>81.91560454792597</v>
+        <v>94.28848731542107</v>
       </c>
       <c r="G5">
-        <v>3.903645109149241</v>
+        <v>1.879636849544742</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.501047493684791</v>
+        <v>7.122972623761871</v>
       </c>
       <c r="M5">
-        <v>47.17901784300856</v>
+        <v>57.01933122380429</v>
       </c>
       <c r="N5">
-        <v>17.01004107109063</v>
+        <v>12.43520719398256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.181179081982865</v>
+        <v>4.21209711832152</v>
       </c>
       <c r="D6">
-        <v>17.70612520905183</v>
+        <v>17.00711403951726</v>
       </c>
       <c r="E6">
-        <v>8.235152001589597</v>
+        <v>8.45185750771858</v>
       </c>
       <c r="F6">
-        <v>81.875546195862</v>
+        <v>93.77248738143261</v>
       </c>
       <c r="G6">
-        <v>3.904353369201953</v>
+        <v>1.88358373302663</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.498487811756164</v>
+        <v>7.096432060518898</v>
       </c>
       <c r="M6">
-        <v>47.14176561507856</v>
+        <v>56.71959514045639</v>
       </c>
       <c r="N6">
-        <v>17.01115696945483</v>
+        <v>12.44462768343318</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.161249563535549</v>
+        <v>4.121965729832142</v>
       </c>
       <c r="D7">
-        <v>17.72543188683132</v>
+        <v>17.60951801126381</v>
       </c>
       <c r="E7">
-        <v>8.272663861297206</v>
+        <v>8.649617327229986</v>
       </c>
       <c r="F7">
-        <v>82.15733168370937</v>
+        <v>97.44492259424338</v>
       </c>
       <c r="G7">
-        <v>3.899472545214959</v>
+        <v>1.855358651901025</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.532300051025315</v>
+        <v>7.28424187157069</v>
       </c>
       <c r="M7">
-        <v>47.40142128263845</v>
+        <v>58.83537148132538</v>
       </c>
       <c r="N7">
-        <v>17.00367468618281</v>
+        <v>12.37603637890958</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.076882083877431</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D8">
-        <v>17.83082444705643</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E8">
-        <v>8.435677221364422</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F8">
-        <v>83.4930367360198</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G8">
-        <v>3.87879678795086</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.691847700478862</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M8">
-        <v>48.57249080649248</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N8">
-        <v>16.97712705848167</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.924012757958955</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D9">
-        <v>18.11254367756685</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E9">
-        <v>8.745547811030928</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F9">
-        <v>86.4399036907884</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G9">
-        <v>3.841243808423195</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.992920893233978</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M9">
-        <v>50.94481140646425</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N9">
-        <v>16.94788181663491</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.819088851957279</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D10">
-        <v>18.36728979011151</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E10">
-        <v>8.966652597488363</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F10">
-        <v>88.79944704059356</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G10">
-        <v>3.815371551050378</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.206318067140344</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M10">
-        <v>52.72101166956437</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N10">
-        <v>16.93988704435279</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.772898015822376</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D11">
-        <v>18.4939325986722</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E11">
-        <v>9.065710261166323</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F11">
-        <v>89.91372515352612</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G11">
-        <v>3.803950067547483</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.301599614637618</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M11">
-        <v>53.53369250837379</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N11">
-        <v>16.93908486574248</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.755622886390892</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D12">
-        <v>18.54346327260854</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E12">
-        <v>9.102994007377657</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F12">
-        <v>90.34142873103013</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G12">
-        <v>3.799672960814882</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.33741503958248</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M12">
-        <v>53.8419069435699</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N12">
-        <v>16.93918034239062</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.75933385554198</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D13">
-        <v>18.53272555065783</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E13">
-        <v>9.094974508424167</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F13">
-        <v>90.24906144136231</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G13">
-        <v>3.800592013406983</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.32971346808328</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M13">
-        <v>53.77550961208858</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N13">
-        <v>16.93914216056591</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.771472474452796</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D14">
-        <v>18.49797582792299</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E14">
-        <v>9.068782213823964</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F14">
-        <v>89.94879808572882</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G14">
-        <v>3.803597238463091</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.304551533752895</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M14">
-        <v>53.55904118399153</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N14">
-        <v>16.9390847684875</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.778935749231071</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D15">
-        <v>18.47689634204258</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E15">
-        <v>9.052708863418459</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F15">
-        <v>89.76562310695184</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G15">
-        <v>3.805444208118792</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.289104325906433</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M15">
-        <v>53.42650346025057</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N15">
-        <v>16.9391013527915</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.822138084675748</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D16">
-        <v>18.35923219069963</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E16">
-        <v>8.960147561240619</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F16">
-        <v>88.72743825694498</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G16">
-        <v>3.816124798702742</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.200054408915967</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M16">
-        <v>52.66797750267038</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N16">
-        <v>16.93999580144768</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.849032108731741</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D17">
-        <v>18.28982399659176</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E17">
-        <v>8.902967745347818</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F17">
-        <v>88.10092962052305</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G17">
-        <v>3.822764671088424</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.144959815784007</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M17">
-        <v>52.20369537730707</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N17">
-        <v>16.94126469615158</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.864646066013963</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D18">
-        <v>18.25091331037946</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E18">
-        <v>8.869936394800957</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F18">
-        <v>87.74443718276473</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G18">
-        <v>3.826616629950235</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.113102386821628</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M18">
-        <v>51.93710416764057</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N18">
-        <v>16.94226186711318</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.869957777024357</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D19">
-        <v>18.23791162501779</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E19">
-        <v>8.858728246352307</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F19">
-        <v>87.62440173841905</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G19">
-        <v>3.827926545481512</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.102287329097871</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M19">
-        <v>51.84692496353812</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N19">
-        <v>16.94264565688839</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.846154199580528</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D20">
-        <v>18.29710777516243</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E20">
-        <v>8.909069499995372</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F20">
-        <v>88.16722412630381</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G20">
-        <v>3.822054457043415</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.150842225884585</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M20">
-        <v>52.25307378462453</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N20">
-        <v>16.94110201143241</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.767901237756718</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D21">
-        <v>18.50813974572696</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E21">
-        <v>9.076481751571903</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F21">
-        <v>90.03683768857142</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G21">
-        <v>3.802713246442342</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.311949467068181</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M21">
-        <v>53.62261199429641</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N21">
-        <v>16.93909085912128</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.71801689289957</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D22">
-        <v>18.65524599032747</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E22">
-        <v>9.184567899140408</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F22">
-        <v>91.29219810346913</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G22">
-        <v>3.790351156320212</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.415691523165605</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M22">
-        <v>54.52034075082859</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N22">
-        <v>16.94009940759761</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.744527677333211</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D23">
-        <v>18.57588375208577</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E23">
-        <v>9.127004112755122</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F23">
-        <v>90.61917013294358</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G23">
-        <v>3.796924267694087</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.360466504455307</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M23">
-        <v>54.04102571058205</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N23">
-        <v>16.93935143884185</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.847454827782938</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D24">
-        <v>18.29381168791894</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E24">
-        <v>8.906311387953416</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F24">
-        <v>88.13724085880257</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G24">
-        <v>3.822375436862647</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.148183357101806</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M24">
-        <v>52.23074876080928</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N24">
-        <v>16.94117472684233</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.964049781205198</v>
+        <v>3.653836943088905</v>
       </c>
       <c r="D25">
-        <v>18.02807818334438</v>
+        <v>21.42670922726113</v>
       </c>
       <c r="E25">
-        <v>8.662832002927173</v>
+        <v>9.7321584139129</v>
       </c>
       <c r="F25">
-        <v>85.60810524259581</v>
+        <v>118.4427268126089</v>
       </c>
       <c r="G25">
-        <v>3.851093228520501</v>
+        <v>1.686846232926356</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.912802812720955</v>
+        <v>8.315316530153478</v>
       </c>
       <c r="M25">
-        <v>50.29628120447003</v>
+        <v>70.25548007852491</v>
       </c>
       <c r="N25">
-        <v>16.95339294656354</v>
+        <v>11.89032228523832</v>
       </c>
       <c r="O25">
         <v>0</v>
